--- a/Input/CRF/inclusion_list.xlsx
+++ b/Input/CRF/inclusion_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMC TS\Research\IE_KS\R_IE_KS\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yoursunny/Google Drive/R_projects/Proj_IE_KIS/Input/CRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58093628-619F-43B8-88A9-2007F47DF8A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25364C9D-31C3-2942-AC8A-416FEA9CE86C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inc_list" sheetId="1" r:id="rId1"/>
@@ -2605,10 +2605,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3238,14 +3239,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3607,20 +3608,20 @@
   <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E289" sqref="E289"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="59.375" customWidth="1"/>
-    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3639,17 +3640,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>695</v>
       </c>
       <c r="I1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>2410808</v>
       </c>
@@ -3668,14 +3669,14 @@
       <c r="F2" s="1">
         <v>35366</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>35383</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>3465944</v>
       </c>
@@ -3694,14 +3695,14 @@
       <c r="F3" s="1">
         <v>35500</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>35515</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>4356683</v>
       </c>
@@ -3720,14 +3721,14 @@
       <c r="F4" s="1">
         <v>35849</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>35871</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5">
         <v>6152254</v>
       </c>
@@ -3749,11 +3750,11 @@
       <c r="G5" s="3">
         <v>36211</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>9020943</v>
       </c>
@@ -3772,14 +3773,14 @@
       <c r="F6" s="1">
         <v>36776</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>36955</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6198056</v>
       </c>
@@ -3798,14 +3799,14 @@
       <c r="F7" s="1">
         <v>37174</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>37242</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8">
         <v>10687762</v>
       </c>
@@ -3827,14 +3828,14 @@
       <c r="G8" s="3">
         <v>37214</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>11544974</v>
       </c>
@@ -3853,14 +3854,14 @@
       <c r="F9" s="1">
         <v>37377</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>37401</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>5467652</v>
       </c>
@@ -3879,14 +3880,14 @@
       <c r="F10" s="1">
         <v>37416</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>37452</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>12834766</v>
       </c>
@@ -3905,14 +3906,14 @@
       <c r="F11" s="1">
         <v>37675</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>37687</v>
       </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12">
         <v>13574902</v>
       </c>
@@ -3934,11 +3935,11 @@
       <c r="G12" s="3">
         <v>37835</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>14225247</v>
       </c>
@@ -3957,14 +3958,14 @@
       <c r="F13" s="1">
         <v>37959</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>37997</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13649949</v>
       </c>
@@ -3983,14 +3984,14 @@
       <c r="F14" s="1">
         <v>37998</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>38049</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="36">
       <c r="A15">
         <v>15214985</v>
       </c>
@@ -4009,14 +4010,14 @@
       <c r="F15" s="1">
         <v>38202</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>38211</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="54">
       <c r="A16">
         <v>14573975</v>
       </c>
@@ -4035,14 +4036,14 @@
       <c r="F16" s="1">
         <v>38301</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>38311</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="54">
       <c r="A17">
         <v>16112471</v>
       </c>
@@ -4061,14 +4062,14 @@
       <c r="F17" s="1">
         <v>38368</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>38407</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="108">
       <c r="A18">
         <v>13130803</v>
       </c>
@@ -4087,14 +4088,14 @@
       <c r="F18" s="1">
         <v>38369</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <v>38413</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="36">
       <c r="A19">
         <v>15735275</v>
       </c>
@@ -4113,14 +4114,14 @@
       <c r="F19" s="1">
         <v>38397</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <v>38418</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="54">
       <c r="A20">
         <v>16266066</v>
       </c>
@@ -4139,14 +4140,14 @@
       <c r="F20" s="1">
         <v>38398</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <v>38413</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="54">
       <c r="A21">
         <v>8678299</v>
       </c>
@@ -4165,14 +4166,14 @@
       <c r="F21" s="1">
         <v>38539</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <v>38562</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22">
         <v>16309123</v>
       </c>
@@ -4194,11 +4195,11 @@
       <c r="G22" s="3">
         <v>38585</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="54" hidden="1">
       <c r="A23">
         <v>17378274</v>
       </c>
@@ -4220,11 +4221,11 @@
       <c r="G23" s="3">
         <v>38699</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24">
         <v>13304266</v>
       </c>
@@ -4246,14 +4247,14 @@
       <c r="G24" s="3">
         <v>38707</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <v>1</v>
       </c>
       <c r="I24" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="54" hidden="1">
       <c r="A25">
         <v>17806562</v>
       </c>
@@ -4275,11 +4276,11 @@
       <c r="G25" s="3">
         <v>38777</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="90">
       <c r="A26">
         <v>17713156</v>
       </c>
@@ -4298,14 +4299,14 @@
       <c r="F26" s="1">
         <v>38731</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="5">
         <v>38780</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="126">
       <c r="A27">
         <v>18070463</v>
       </c>
@@ -4324,14 +4325,14 @@
       <c r="F27" s="1">
         <v>38813</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="5">
         <v>38936</v>
       </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="72">
       <c r="A28">
         <v>17929890</v>
       </c>
@@ -4350,14 +4351,14 @@
       <c r="F28" s="1">
         <v>38860</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="5">
         <v>38876</v>
       </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="36">
       <c r="A29">
         <v>19435470</v>
       </c>
@@ -4376,14 +4377,14 @@
       <c r="F29" s="1">
         <v>39118.626388888886</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="5">
         <v>39135</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="72">
       <c r="A30">
         <v>20222096</v>
       </c>
@@ -4402,14 +4403,14 @@
       <c r="F30" s="1">
         <v>39294.945138888892</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="5">
         <v>39314</v>
       </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="108" hidden="1">
       <c r="A31">
         <v>20407839</v>
       </c>
@@ -4431,11 +4432,11 @@
       <c r="G31" s="3">
         <v>39370</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="36">
       <c r="A32">
         <v>20496794</v>
       </c>
@@ -4454,14 +4455,14 @@
       <c r="F32" s="1">
         <v>39364</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="5">
         <v>39391</v>
       </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="90">
       <c r="A33">
         <v>13335680</v>
       </c>
@@ -4480,14 +4481,14 @@
       <c r="F33" s="1">
         <v>39368</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="5">
         <v>39396</v>
       </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="36">
       <c r="A34">
         <v>20898165</v>
       </c>
@@ -4506,14 +4507,14 @@
       <c r="F34" s="1">
         <v>39462</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="5">
         <v>39527</v>
       </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="36">
       <c r="A35">
         <v>21218582</v>
       </c>
@@ -4532,14 +4533,14 @@
       <c r="F35" s="1">
         <v>39580</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="5">
         <v>39589</v>
       </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="90">
       <c r="A36">
         <v>3497954</v>
       </c>
@@ -4558,14 +4559,14 @@
       <c r="F36" s="1">
         <v>39616</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="5">
         <v>39634</v>
       </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="54">
       <c r="A37">
         <v>21832652</v>
       </c>
@@ -4584,14 +4585,14 @@
       <c r="F37" s="1">
         <v>39658</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="5">
         <v>39709</v>
       </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>22346473</v>
       </c>
@@ -4610,14 +4611,14 @@
       <c r="F38" s="1">
         <v>39885</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="5">
         <v>39910</v>
       </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="36">
       <c r="A39">
         <v>23102573</v>
       </c>
@@ -4636,14 +4637,14 @@
       <c r="F39" s="1">
         <v>39930</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="5">
         <v>39960</v>
       </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="36">
       <c r="A40">
         <v>11759358</v>
       </c>
@@ -4662,14 +4663,14 @@
       <c r="F40" s="1">
         <v>39932</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="5">
         <v>39964</v>
       </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="54">
       <c r="A41">
         <v>23306009</v>
       </c>
@@ -4688,14 +4689,14 @@
       <c r="F41" s="1">
         <v>39973</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="5">
         <v>40016</v>
       </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="72">
       <c r="A42">
         <v>23100636</v>
       </c>
@@ -4714,14 +4715,14 @@
       <c r="F42" s="1">
         <v>39979.838888888888</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="5">
         <v>40021</v>
       </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="36">
       <c r="A43">
         <v>23508111</v>
       </c>
@@ -4740,14 +4741,14 @@
       <c r="F43" s="1">
         <v>40014.547222222223</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="5">
         <v>40035</v>
       </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="72">
       <c r="A44">
         <v>22272376</v>
       </c>
@@ -4766,14 +4767,14 @@
       <c r="F44" s="1">
         <v>40101.599999999999</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="5">
         <v>40129</v>
       </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="72">
       <c r="A45">
         <v>24296116</v>
       </c>
@@ -4792,14 +4793,14 @@
       <c r="F45" s="1">
         <v>40157.758333333331</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="5">
         <v>40173</v>
       </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>24183551</v>
       </c>
@@ -4818,14 +4819,14 @@
       <c r="F46" s="1">
         <v>40252.716666666667</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="5">
         <v>40319</v>
       </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>24909658</v>
       </c>
@@ -4844,14 +4845,14 @@
       <c r="F47" s="1">
         <v>40277.963888888888</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="5">
         <v>40324</v>
       </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>25160278</v>
       </c>
@@ -4870,14 +4871,14 @@
       <c r="F48" s="1">
         <v>40354.84652777778</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="5">
         <v>40384</v>
       </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="54">
       <c r="A49">
         <v>25460978</v>
       </c>
@@ -4896,14 +4897,14 @@
       <c r="F49" s="1">
         <v>40387.873611111114</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="5">
         <v>40429</v>
       </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="72" hidden="1">
       <c r="A50">
         <v>24635779</v>
       </c>
@@ -4925,11 +4926,11 @@
       <c r="G50" s="3">
         <v>40466</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="36">
       <c r="A51">
         <v>25745787</v>
       </c>
@@ -4948,14 +4949,14 @@
       <c r="F51" s="1">
         <v>40441.931944444441</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="5">
         <v>40490</v>
       </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="90">
       <c r="A52">
         <v>25777005</v>
       </c>
@@ -4974,14 +4975,14 @@
       <c r="F52" s="1">
         <v>40450.640972222223</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="5">
         <v>40491</v>
       </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="108">
       <c r="A53">
         <v>25860710</v>
       </c>
@@ -5000,14 +5001,14 @@
       <c r="F53" s="1">
         <v>40472.570138888892</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="5">
         <v>40500</v>
       </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="72">
       <c r="A54">
         <v>26660878</v>
       </c>
@@ -5026,14 +5027,14 @@
       <c r="F54" s="1">
         <v>40637</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="5">
         <v>40666</v>
       </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="36">
       <c r="A55">
         <v>26992207</v>
       </c>
@@ -5052,14 +5053,14 @@
       <c r="F55" s="1">
         <v>40685</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="5">
         <v>40730</v>
       </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="72">
       <c r="A56">
         <v>27367802</v>
       </c>
@@ -5078,14 +5079,14 @@
       <c r="F56" s="1">
         <v>40753</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="5">
         <v>40795</v>
       </c>
-      <c r="H56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="72">
       <c r="A57">
         <v>27432728</v>
       </c>
@@ -5104,14 +5105,14 @@
       <c r="F57" s="1">
         <v>40771</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="5">
         <v>40782</v>
       </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="36">
       <c r="A58">
         <v>22444490</v>
       </c>
@@ -5130,14 +5131,14 @@
       <c r="F58" s="1">
         <v>40772</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="5">
         <v>40786</v>
       </c>
-      <c r="H58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="90" hidden="1">
       <c r="A59">
         <v>27636562</v>
       </c>
@@ -5159,14 +5160,14 @@
       <c r="G59" s="3">
         <v>40834</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="4">
         <v>1</v>
       </c>
       <c r="I59" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="165" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="180">
       <c r="A60">
         <v>27773944</v>
       </c>
@@ -5185,14 +5186,14 @@
       <c r="F60" s="1">
         <v>40829</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="5">
         <v>40872</v>
       </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="72">
       <c r="A61">
         <v>27350523</v>
       </c>
@@ -5211,14 +5212,14 @@
       <c r="F61" s="1">
         <v>40882</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="5">
         <v>40912</v>
       </c>
-      <c r="H61" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="36">
       <c r="A62">
         <v>28144569</v>
       </c>
@@ -5237,14 +5238,14 @@
       <c r="F62" s="1">
         <v>40917.655555555553</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="5">
         <v>40940</v>
       </c>
-      <c r="H62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="54">
       <c r="A63">
         <v>28227480</v>
       </c>
@@ -5263,14 +5264,14 @@
       <c r="F63" s="1">
         <v>40937.683333333334</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="5">
         <v>40951</v>
       </c>
-      <c r="H63" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="36">
       <c r="A64">
         <v>28077920</v>
       </c>
@@ -5289,14 +5290,14 @@
       <c r="F64" s="1">
         <v>40948.614583333336</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="5">
         <v>40978</v>
       </c>
-      <c r="H64" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="90">
       <c r="A65">
         <v>17320004</v>
       </c>
@@ -5315,14 +5316,14 @@
       <c r="F65" s="1">
         <v>41068.780555555553</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="5">
         <v>41088</v>
       </c>
-      <c r="H65" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>29108625</v>
       </c>
@@ -5341,14 +5342,14 @@
       <c r="F66" s="1">
         <v>41094.708333333336</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="5">
         <v>41108</v>
       </c>
-      <c r="H66" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="54">
       <c r="A67">
         <v>29203931</v>
       </c>
@@ -5367,14 +5368,14 @@
       <c r="F67" s="1">
         <v>41101.718055555553</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="5">
         <v>41129</v>
       </c>
-      <c r="H67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>21947387</v>
       </c>
@@ -5393,14 +5394,14 @@
       <c r="F68" s="1">
         <v>41104.00277777778</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="5">
         <v>41132</v>
       </c>
-      <c r="H68" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="54" hidden="1">
       <c r="A69">
         <v>28902545</v>
       </c>
@@ -5422,11 +5423,11 @@
       <c r="G69" s="3">
         <v>41166</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="108">
       <c r="A70">
         <v>29470836</v>
       </c>
@@ -5445,14 +5446,14 @@
       <c r="F70" s="1">
         <v>41153.875</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="5">
         <v>41170</v>
       </c>
-      <c r="H70" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="126" hidden="1">
       <c r="A71">
         <v>29399629</v>
       </c>
@@ -5474,11 +5475,11 @@
       <c r="G71" s="3">
         <v>41191</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="144">
       <c r="A72">
         <v>274042</v>
       </c>
@@ -5497,14 +5498,14 @@
       <c r="F72" s="1">
         <v>41178.806944444441</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="5">
         <v>41220</v>
       </c>
-      <c r="H72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="36">
       <c r="A73">
         <v>29743932</v>
       </c>
@@ -5523,14 +5524,14 @@
       <c r="F73" s="1">
         <v>41211.688888888886</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="5">
         <v>41242</v>
       </c>
-      <c r="H73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="54">
       <c r="A74">
         <v>29719311</v>
       </c>
@@ -5549,14 +5550,14 @@
       <c r="F74" s="1">
         <v>41212.714583333334</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="5">
         <v>41250</v>
       </c>
-      <c r="H74" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="36">
       <c r="A75">
         <v>17356160</v>
       </c>
@@ -5575,14 +5576,14 @@
       <c r="F75" s="1">
         <v>41223.51458333333</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="5">
         <v>41255</v>
       </c>
-      <c r="H75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="54">
       <c r="A76">
         <v>30493635</v>
       </c>
@@ -5601,14 +5602,14 @@
       <c r="F76" s="1">
         <v>41361</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="5">
         <v>41383</v>
       </c>
-      <c r="H76" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="72">
       <c r="A77">
         <v>30532758</v>
       </c>
@@ -5627,14 +5628,14 @@
       <c r="F77" s="1">
         <v>41368</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="5">
         <v>41389</v>
       </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="54" hidden="1">
       <c r="A78">
         <v>3019561</v>
       </c>
@@ -5656,11 +5657,11 @@
       <c r="G78" s="3">
         <v>41386</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="36">
       <c r="A79">
         <v>30535209</v>
       </c>
@@ -5679,14 +5680,14 @@
       <c r="F79" s="1">
         <v>41386</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="5">
         <v>41396</v>
       </c>
-      <c r="H79" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="72">
       <c r="A80">
         <v>30528779</v>
       </c>
@@ -5705,14 +5706,14 @@
       <c r="F80" s="1">
         <v>41409</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="5">
         <v>41429</v>
       </c>
-      <c r="H80" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="144">
       <c r="A81">
         <v>30704881</v>
       </c>
@@ -5731,14 +5732,14 @@
       <c r="F81" s="1">
         <v>41403</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="5">
         <v>41436</v>
       </c>
-      <c r="H81" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="36">
       <c r="A82">
         <v>29919429</v>
       </c>
@@ -5757,14 +5758,14 @@
       <c r="F82" s="1">
         <v>41435</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="5">
         <v>41485</v>
       </c>
-      <c r="H82" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>30962823</v>
       </c>
@@ -5783,14 +5784,14 @@
       <c r="F83" s="1">
         <v>41453</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="5">
         <v>41471</v>
       </c>
-      <c r="H83" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="126">
       <c r="A84">
         <v>31130423</v>
       </c>
@@ -5809,14 +5810,14 @@
       <c r="F84" s="1">
         <v>41484</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="5">
         <v>41514</v>
       </c>
-      <c r="H84" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="72">
       <c r="A85">
         <v>31345160</v>
       </c>
@@ -5835,14 +5836,14 @@
       <c r="F85" s="1">
         <v>41527</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="5">
         <v>41563</v>
       </c>
-      <c r="H85" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="36">
       <c r="A86">
         <v>31211975</v>
       </c>
@@ -5861,14 +5862,14 @@
       <c r="F86" s="1">
         <v>41546</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="5">
         <v>41560</v>
       </c>
-      <c r="H86" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="72">
       <c r="A87">
         <v>31724765</v>
       </c>
@@ -5887,14 +5888,14 @@
       <c r="F87" s="1">
         <v>41606</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="5">
         <v>41647</v>
       </c>
-      <c r="H87" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="54" hidden="1">
       <c r="A88">
         <v>31855623</v>
       </c>
@@ -5916,14 +5917,14 @@
       <c r="G88" s="3">
         <v>41659</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88" s="4">
         <v>1</v>
       </c>
       <c r="I88" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="54">
       <c r="A89">
         <v>13728965</v>
       </c>
@@ -5942,14 +5943,14 @@
       <c r="F89" s="1">
         <v>41802</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="5">
         <v>41838</v>
       </c>
-      <c r="H89" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="72">
       <c r="A90">
         <v>32953160</v>
       </c>
@@ -5968,14 +5969,14 @@
       <c r="F90" s="1">
         <v>41829.659722222219</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="5">
         <v>41880</v>
       </c>
-      <c r="H90" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="90" hidden="1">
       <c r="A91">
         <v>33071173</v>
       </c>
@@ -5997,11 +5998,11 @@
       <c r="G91" s="3">
         <v>41869</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="54">
       <c r="A92">
         <v>26950579</v>
       </c>
@@ -6020,14 +6021,14 @@
       <c r="F92" s="1">
         <v>41888</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="5">
         <v>41937</v>
       </c>
-      <c r="H92" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="72">
       <c r="A93">
         <v>33420856</v>
       </c>
@@ -6046,14 +6047,14 @@
       <c r="F93" s="1">
         <v>41915</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="5">
         <v>41989</v>
       </c>
-      <c r="H93" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="36">
       <c r="A94">
         <v>33561357</v>
       </c>
@@ -6072,14 +6073,14 @@
       <c r="F94" s="1">
         <v>41945</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="5">
         <v>41955</v>
       </c>
-      <c r="H94" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="72" hidden="1">
       <c r="A95">
         <v>17643918</v>
       </c>
@@ -6101,11 +6102,11 @@
       <c r="G95" s="3">
         <v>42035</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="54">
       <c r="A96">
         <v>33744516</v>
       </c>
@@ -6124,14 +6125,14 @@
       <c r="F96" s="1">
         <v>41975</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="5">
         <v>41993</v>
       </c>
-      <c r="H96" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="90" hidden="1">
       <c r="A97">
         <v>34047278</v>
       </c>
@@ -6153,11 +6154,11 @@
       <c r="G97" s="3">
         <v>42074</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H97" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="90">
       <c r="A98">
         <v>30962823</v>
       </c>
@@ -6176,14 +6177,14 @@
       <c r="F98" s="1">
         <v>42062</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="5">
         <v>42075</v>
       </c>
-      <c r="H98" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="54">
       <c r="A99">
         <v>34535056</v>
       </c>
@@ -6202,14 +6203,14 @@
       <c r="F99" s="1">
         <v>42119</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="5">
         <v>42144</v>
       </c>
-      <c r="H99" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="36">
       <c r="A100">
         <v>34612500</v>
       </c>
@@ -6228,14 +6229,14 @@
       <c r="F100" s="1">
         <v>42135</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="5">
         <v>42159</v>
       </c>
-      <c r="H100" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="36" hidden="1">
       <c r="A101">
         <v>34664666</v>
       </c>
@@ -6257,11 +6258,11 @@
       <c r="G101" s="3">
         <v>42173</v>
       </c>
-      <c r="H101" s="6">
+      <c r="H101" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="54">
       <c r="A102">
         <v>34936747</v>
       </c>
@@ -6280,14 +6281,14 @@
       <c r="F102" s="1">
         <v>42262</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="5">
         <v>42279</v>
       </c>
-      <c r="H102" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="36">
       <c r="A103">
         <v>35072521</v>
       </c>
@@ -6306,14 +6307,14 @@
       <c r="F103" s="1">
         <v>42279</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="5">
         <v>42286</v>
       </c>
-      <c r="H103" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="36" hidden="1">
       <c r="A104">
         <v>33426997</v>
       </c>
@@ -6335,11 +6336,11 @@
       <c r="G104" s="3">
         <v>42395</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H104" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="36">
       <c r="A105">
         <v>16644936</v>
       </c>
@@ -6358,14 +6359,14 @@
       <c r="F105" s="1">
         <v>42501</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="5">
         <v>42565</v>
       </c>
-      <c r="H105" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="180">
       <c r="A106">
         <v>36169491</v>
       </c>
@@ -6384,14 +6385,14 @@
       <c r="F106" s="1">
         <v>42517</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="5">
         <v>42536</v>
       </c>
-      <c r="H106" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="36">
       <c r="A107">
         <v>21187802</v>
       </c>
@@ -6410,14 +6411,14 @@
       <c r="F107" s="1">
         <v>42579</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="5">
         <v>42595</v>
       </c>
-      <c r="H107" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="72">
       <c r="A108">
         <v>33822629</v>
       </c>
@@ -6436,14 +6437,14 @@
       <c r="F108" s="1">
         <v>42575</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="5">
         <v>42622</v>
       </c>
-      <c r="H108" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="54">
       <c r="A109">
         <v>36778138</v>
       </c>
@@ -6462,14 +6463,14 @@
       <c r="F109" s="1">
         <v>42639</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="5">
         <v>42677</v>
       </c>
-      <c r="H109" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="36">
       <c r="A110">
         <v>31648834</v>
       </c>
@@ -6488,14 +6489,14 @@
       <c r="F110" s="1">
         <v>42749</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="5">
         <v>42769</v>
       </c>
-      <c r="H110" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="54">
       <c r="A111">
         <v>38117704</v>
       </c>
@@ -6514,14 +6515,14 @@
       <c r="F111" s="1">
         <v>42901</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="5">
         <v>42915</v>
       </c>
-      <c r="H111" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="36">
       <c r="A112">
         <v>33800506</v>
       </c>
@@ -6540,14 +6541,14 @@
       <c r="F112" s="1">
         <v>42909</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="5">
         <v>42922</v>
       </c>
-      <c r="H112" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="36">
       <c r="A113">
         <v>37711570</v>
       </c>
@@ -6566,14 +6567,14 @@
       <c r="F113" s="1">
         <v>42919</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="5">
         <v>42930</v>
       </c>
-      <c r="H113" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="36" hidden="1">
       <c r="A114">
         <v>29909596</v>
       </c>
@@ -6595,11 +6596,11 @@
       <c r="G114" s="3">
         <v>42986</v>
       </c>
-      <c r="H114" s="6">
+      <c r="H114" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="36">
       <c r="A115">
         <v>17615223</v>
       </c>
@@ -6618,14 +6619,14 @@
       <c r="F115" s="1">
         <v>42974</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="5">
         <v>43044</v>
       </c>
-      <c r="H115" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="36">
       <c r="A116">
         <v>38390477</v>
       </c>
@@ -6644,14 +6645,14 @@
       <c r="F116" s="1">
         <v>42979</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="5">
         <v>43032</v>
       </c>
-      <c r="H116" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="72" hidden="1">
       <c r="A117">
         <v>38989796</v>
       </c>
@@ -6673,11 +6674,11 @@
       <c r="G117" s="3">
         <v>43064</v>
       </c>
-      <c r="H117" s="6">
+      <c r="H117" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="36">
       <c r="A118">
         <v>38918219</v>
       </c>
@@ -6696,14 +6697,14 @@
       <c r="F118" s="1">
         <v>43055</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="5">
         <v>43071</v>
       </c>
-      <c r="H118" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="72">
       <c r="A119">
         <v>39057704</v>
       </c>
@@ -6722,14 +6723,14 @@
       <c r="F119" s="1">
         <v>43066</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="5">
         <v>43071</v>
       </c>
-      <c r="H119" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="36">
       <c r="A120">
         <v>36942863</v>
       </c>
@@ -6748,14 +6749,14 @@
       <c r="F120" s="1">
         <v>43083</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="5">
         <v>43103</v>
       </c>
-      <c r="H120" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="72">
       <c r="A121">
         <v>39246067</v>
       </c>
@@ -6774,14 +6775,14 @@
       <c r="F121" s="1">
         <v>43187</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="5">
         <v>43232</v>
       </c>
-      <c r="H121" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="36">
       <c r="A122">
         <v>39783311</v>
       </c>
@@ -6800,14 +6801,14 @@
       <c r="F122" s="1">
         <v>43263</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="5">
         <v>43274</v>
       </c>
-      <c r="H122" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="90">
       <c r="A123">
         <v>40200243</v>
       </c>
@@ -6826,14 +6827,14 @@
       <c r="F123" s="1">
         <v>43269</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" s="5">
         <v>43285</v>
       </c>
-      <c r="H123" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="36">
       <c r="A124">
         <v>40088731</v>
       </c>
@@ -6852,14 +6853,14 @@
       <c r="F124" s="1">
         <v>43279</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124" s="5">
         <v>43290</v>
       </c>
-      <c r="H124" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="36">
       <c r="A125">
         <v>40576920</v>
       </c>
@@ -6878,14 +6879,14 @@
       <c r="F125" s="1">
         <v>43340</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G125" s="5">
         <v>43353</v>
       </c>
-      <c r="H125" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="72">
       <c r="A126">
         <v>40396687</v>
       </c>
@@ -6904,14 +6905,14 @@
       <c r="F126" s="1">
         <v>43354</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126" s="5">
         <v>43363</v>
       </c>
-      <c r="H126" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="36">
       <c r="A127">
         <v>40857375</v>
       </c>
@@ -6930,14 +6931,14 @@
       <c r="F127" s="1">
         <v>43381</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G127" s="5">
         <v>43411</v>
       </c>
-      <c r="H127" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="36">
       <c r="A128">
         <v>40925340</v>
       </c>
@@ -6956,14 +6957,14 @@
       <c r="F128" s="1">
         <v>43396</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G128" s="5">
         <v>43421</v>
       </c>
-      <c r="H128" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="36">
       <c r="A129">
         <v>41029441</v>
       </c>
@@ -6982,14 +6983,14 @@
       <c r="F129" s="1">
         <v>43412</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G129" s="5">
         <v>43425</v>
       </c>
-      <c r="H129" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="72" hidden="1">
       <c r="A130">
         <v>41252566</v>
       </c>
@@ -7011,11 +7012,11 @@
       <c r="G130" s="3">
         <v>43461</v>
       </c>
-      <c r="H130" s="6">
+      <c r="H130" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="54">
       <c r="A131">
         <v>41347109</v>
       </c>
@@ -7034,14 +7035,14 @@
       <c r="F131" s="1">
         <v>43455</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="5">
         <v>43482</v>
       </c>
-      <c r="H131" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="90" hidden="1">
       <c r="A132">
         <v>35327584</v>
       </c>
@@ -7063,11 +7064,11 @@
       <c r="G132" s="3">
         <v>43535</v>
       </c>
-      <c r="H132" s="6">
+      <c r="H132" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="90">
       <c r="A133">
         <v>41667058</v>
       </c>
@@ -7086,14 +7087,14 @@
       <c r="F133" s="1">
         <v>43507</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G133" s="5">
         <v>43528</v>
       </c>
-      <c r="H133" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="H133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="108">
       <c r="A134">
         <v>41747987</v>
       </c>
@@ -7112,14 +7113,14 @@
       <c r="F134" s="1">
         <v>43517</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="5">
         <v>43528</v>
       </c>
-      <c r="H134" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="36">
       <c r="A135">
         <v>42121771</v>
       </c>
@@ -7138,14 +7139,14 @@
       <c r="F135" s="1">
         <v>43613</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="5">
         <v>43626</v>
       </c>
-      <c r="H135" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="72">
       <c r="A136">
         <v>42372993</v>
       </c>
@@ -7164,14 +7165,14 @@
       <c r="F136" s="1">
         <v>43614</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="5">
         <v>43630</v>
       </c>
-      <c r="H136" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="54">
       <c r="A137">
         <v>42129919</v>
       </c>
@@ -7190,14 +7191,14 @@
       <c r="F137" s="1">
         <v>43632</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="5">
         <v>43643</v>
       </c>
-      <c r="H137" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="54">
       <c r="A138">
         <v>9199979</v>
       </c>
@@ -7216,14 +7217,14 @@
       <c r="F138" s="1">
         <v>43658</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="5">
         <v>43676</v>
       </c>
-      <c r="H138" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="54">
       <c r="A139">
         <v>42884067</v>
       </c>
@@ -7242,14 +7243,14 @@
       <c r="F139" s="1">
         <v>43697</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="5">
         <v>43710</v>
       </c>
-      <c r="H139" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="72">
       <c r="A140">
         <v>24203002</v>
       </c>
@@ -7268,14 +7269,14 @@
       <c r="F140" s="1">
         <v>43696</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="5">
         <v>43724</v>
       </c>
-      <c r="H140" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="36">
       <c r="A141">
         <v>2677469</v>
       </c>
@@ -7294,14 +7295,14 @@
       <c r="F141" s="1">
         <v>43776</v>
       </c>
-      <c r="G141" s="3">
+      <c r="G141" s="5">
         <v>43810</v>
       </c>
-      <c r="H141" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="90">
       <c r="A142">
         <v>43550958</v>
       </c>
@@ -7320,14 +7321,14 @@
       <c r="F142" s="1">
         <v>43790</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="5">
         <v>43818</v>
       </c>
-      <c r="H142" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="54">
       <c r="A143">
         <v>22361300</v>
       </c>
@@ -7346,14 +7347,14 @@
       <c r="F143" s="1">
         <v>43816</v>
       </c>
-      <c r="G143" s="3">
+      <c r="G143" s="5">
         <v>43836</v>
       </c>
-      <c r="H143" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="36" hidden="1">
       <c r="A144">
         <v>43729101</v>
       </c>
@@ -7375,11 +7376,11 @@
       <c r="G144" s="3">
         <v>43882</v>
       </c>
-      <c r="H144" s="6">
+      <c r="H144" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="54">
       <c r="A145">
         <v>43989446</v>
       </c>
@@ -7398,14 +7399,14 @@
       <c r="F145" s="1">
         <v>43853</v>
       </c>
-      <c r="G145" s="3">
+      <c r="G145" s="5">
         <v>43882</v>
       </c>
-      <c r="H145" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="72">
       <c r="A146">
         <v>20725757</v>
       </c>
@@ -7424,14 +7425,14 @@
       <c r="F146" s="1">
         <v>43896</v>
       </c>
-      <c r="G146" s="3">
+      <c r="G146" s="5">
         <v>43916</v>
       </c>
-      <c r="H146" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="36" hidden="1">
       <c r="A147">
         <v>40403316</v>
       </c>
@@ -7453,11 +7454,11 @@
       <c r="G147" s="3">
         <v>44041</v>
       </c>
-      <c r="H147" s="6">
+      <c r="H147" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>566970</v>
       </c>
@@ -7476,14 +7477,14 @@
       <c r="F148" s="1">
         <v>34725</v>
       </c>
-      <c r="G148" s="3">
+      <c r="G148" s="5">
         <v>34750</v>
       </c>
-      <c r="H148" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>650468</v>
       </c>
@@ -7502,14 +7503,14 @@
       <c r="F149" s="1">
         <v>35091</v>
       </c>
-      <c r="G149" s="3">
+      <c r="G149" s="5">
         <v>35107</v>
       </c>
-      <c r="H149" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>1843632</v>
       </c>
@@ -7528,14 +7529,14 @@
       <c r="F150" s="1">
         <v>35121</v>
       </c>
-      <c r="G150" s="3">
+      <c r="G150" s="5">
         <v>35173</v>
       </c>
-      <c r="H150" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>2891126</v>
       </c>
@@ -7554,14 +7555,14 @@
       <c r="F151" s="1">
         <v>35330</v>
       </c>
-      <c r="G151" s="3">
+      <c r="G151" s="5">
         <v>35385</v>
       </c>
-      <c r="H151" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>3585310</v>
       </c>
@@ -7580,14 +7581,14 @@
       <c r="F152" s="1">
         <v>35513</v>
       </c>
-      <c r="G152" s="3">
+      <c r="G152" s="5">
         <v>35560</v>
       </c>
-      <c r="H152" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>3524935</v>
       </c>
@@ -7606,14 +7607,14 @@
       <c r="F153" s="1">
         <v>35561</v>
       </c>
-      <c r="G153" s="3">
+      <c r="G153" s="5">
         <v>35605</v>
       </c>
-      <c r="H153" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>4512087</v>
       </c>
@@ -7632,14 +7633,14 @@
       <c r="F154" s="1">
         <v>35731</v>
       </c>
-      <c r="G154" s="3">
+      <c r="G154" s="5">
         <v>35777</v>
       </c>
-      <c r="H154" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>4575064</v>
       </c>
@@ -7658,14 +7659,14 @@
       <c r="F155" s="1">
         <v>35746</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="5">
         <v>35819</v>
       </c>
-      <c r="H155" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>4563735</v>
       </c>
@@ -7684,14 +7685,14 @@
       <c r="F156" s="1">
         <v>35769</v>
       </c>
-      <c r="G156" s="3">
+      <c r="G156" s="5">
         <v>35783</v>
       </c>
-      <c r="H156" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>2752777</v>
       </c>
@@ -7710,14 +7711,14 @@
       <c r="F157" s="1">
         <v>35865</v>
       </c>
-      <c r="G157" s="3">
+      <c r="G157" s="5">
         <v>35914</v>
       </c>
-      <c r="H157" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>1451279</v>
       </c>
@@ -7736,14 +7737,14 @@
       <c r="F158" s="1">
         <v>35925</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G158" s="5">
         <v>35954</v>
       </c>
-      <c r="H158" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>5397076</v>
       </c>
@@ -7762,14 +7763,14 @@
       <c r="F159" s="1">
         <v>35955</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G159" s="5">
         <v>35994</v>
       </c>
-      <c r="H159" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>6619186</v>
       </c>
@@ -7788,14 +7789,14 @@
       <c r="F160" s="1">
         <v>36230</v>
       </c>
-      <c r="G160" s="3">
+      <c r="G160" s="5">
         <v>36263</v>
       </c>
-      <c r="H160" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>7015712</v>
       </c>
@@ -7814,14 +7815,14 @@
       <c r="F161" s="1">
         <v>36340</v>
       </c>
-      <c r="G161" s="3">
+      <c r="G161" s="5">
         <v>36444</v>
       </c>
-      <c r="H161" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>8432521</v>
       </c>
@@ -7840,14 +7841,14 @@
       <c r="F162" s="1">
         <v>36628</v>
       </c>
-      <c r="G162" s="3">
+      <c r="G162" s="5">
         <v>36653</v>
       </c>
-      <c r="H162" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>8730571</v>
       </c>
@@ -7866,14 +7867,14 @@
       <c r="F163" s="1">
         <v>36694</v>
       </c>
-      <c r="G163" s="3">
+      <c r="G163" s="5">
         <v>36736</v>
       </c>
-      <c r="H163" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>8614073</v>
       </c>
@@ -7892,14 +7893,14 @@
       <c r="F164" s="1">
         <v>36718</v>
       </c>
-      <c r="G164" s="3">
+      <c r="G164" s="5">
         <v>36736</v>
       </c>
-      <c r="H164" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>9285911</v>
       </c>
@@ -7918,14 +7919,14 @@
       <c r="F165" s="1">
         <v>36872</v>
       </c>
-      <c r="G165" s="3">
+      <c r="G165" s="5">
         <v>36930</v>
       </c>
-      <c r="H165" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>9540179</v>
       </c>
@@ -7944,14 +7945,14 @@
       <c r="F166" s="1">
         <v>36931</v>
       </c>
-      <c r="G166" s="3">
+      <c r="G166" s="5">
         <v>36964</v>
       </c>
-      <c r="H166" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>9566740</v>
       </c>
@@ -7970,14 +7971,14 @@
       <c r="F167" s="1">
         <v>36938</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G167" s="5">
         <v>36969</v>
       </c>
-      <c r="H167" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>9964177</v>
       </c>
@@ -7996,14 +7997,14 @@
       <c r="F168" s="1">
         <v>37029</v>
       </c>
-      <c r="G168" s="3">
+      <c r="G168" s="5">
         <v>37053</v>
       </c>
-      <c r="H168" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>10252713</v>
       </c>
@@ -8022,14 +8023,14 @@
       <c r="F169" s="1">
         <v>37096</v>
       </c>
-      <c r="G169" s="3">
+      <c r="G169" s="5">
         <v>37123</v>
       </c>
-      <c r="H169" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>10436559</v>
       </c>
@@ -8048,14 +8049,14 @@
       <c r="F170" s="1">
         <v>37131</v>
       </c>
-      <c r="G170" s="3">
+      <c r="G170" s="5">
         <v>37176</v>
       </c>
-      <c r="H170" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>10606772</v>
       </c>
@@ -8074,14 +8075,14 @@
       <c r="F171" s="1">
         <v>37168</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G171" s="5">
         <v>37201</v>
       </c>
-      <c r="H171" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>10680035</v>
       </c>
@@ -8100,14 +8101,14 @@
       <c r="F172" s="1">
         <v>37183</v>
       </c>
-      <c r="G172" s="3">
+      <c r="G172" s="5">
         <v>37228</v>
       </c>
-      <c r="H172" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>10618926</v>
       </c>
@@ -8126,14 +8127,14 @@
       <c r="F173" s="1">
         <v>37182</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G173" s="5">
         <v>37199</v>
       </c>
-      <c r="H173" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>9510480</v>
       </c>
@@ -8152,14 +8153,14 @@
       <c r="F174" s="1">
         <v>37268</v>
       </c>
-      <c r="G174" s="3">
+      <c r="G174" s="5">
         <v>37322</v>
       </c>
-      <c r="H174" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>11266865</v>
       </c>
@@ -8178,14 +8179,14 @@
       <c r="F175" s="1">
         <v>37314</v>
       </c>
-      <c r="G175" s="3">
+      <c r="G175" s="5">
         <v>37331</v>
       </c>
-      <c r="H175" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>11260751</v>
       </c>
@@ -8204,14 +8205,14 @@
       <c r="F176" s="1">
         <v>37314</v>
       </c>
-      <c r="G176" s="3">
+      <c r="G176" s="5">
         <v>37343</v>
       </c>
-      <c r="H176" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>7637842</v>
       </c>
@@ -8230,14 +8231,14 @@
       <c r="F177" s="1">
         <v>37323</v>
       </c>
-      <c r="G177" s="3">
+      <c r="G177" s="5">
         <v>37365</v>
       </c>
-      <c r="H177" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>11382895</v>
       </c>
@@ -8256,14 +8257,14 @@
       <c r="F178" s="1">
         <v>37339</v>
       </c>
-      <c r="G178" s="3">
+      <c r="G178" s="5">
         <v>37377</v>
       </c>
-      <c r="H178" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>11583302</v>
       </c>
@@ -8282,14 +8283,14 @@
       <c r="F179" s="1">
         <v>37385</v>
       </c>
-      <c r="G179" s="3">
+      <c r="G179" s="5">
         <v>37435</v>
       </c>
-      <c r="H179" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>11782178</v>
       </c>
@@ -8308,14 +8309,14 @@
       <c r="F180" s="1">
         <v>37431</v>
       </c>
-      <c r="G180" s="3">
+      <c r="G180" s="5">
         <v>37457</v>
       </c>
-      <c r="H180" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>12999834</v>
       </c>
@@ -8334,14 +8335,14 @@
       <c r="F181" s="1">
         <v>37698</v>
       </c>
-      <c r="G181" s="3">
+      <c r="G181" s="5">
         <v>37737</v>
       </c>
-      <c r="H181" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>13280687</v>
       </c>
@@ -8360,14 +8361,14 @@
       <c r="F182" s="1">
         <v>37789</v>
       </c>
-      <c r="G182" s="3">
+      <c r="G182" s="5">
         <v>37799</v>
       </c>
-      <c r="H182" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>5824068</v>
       </c>
@@ -8386,14 +8387,14 @@
       <c r="F183" s="1">
         <v>38133</v>
       </c>
-      <c r="G183" s="3">
+      <c r="G183" s="5">
         <v>38174</v>
       </c>
-      <c r="H183" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="H183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="108">
       <c r="A184">
         <v>15535121</v>
       </c>
@@ -8412,14 +8413,14 @@
       <c r="F184" s="1">
         <v>38230</v>
       </c>
-      <c r="G184" s="3">
+      <c r="G184" s="5">
         <v>38281</v>
       </c>
-      <c r="H184" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H184" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="36">
       <c r="A185">
         <v>15905153</v>
       </c>
@@ -8438,14 +8439,14 @@
       <c r="F185" s="1">
         <v>38316</v>
       </c>
-      <c r="G185" s="3">
+      <c r="G185" s="5">
         <v>38352</v>
       </c>
-      <c r="H185" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="54">
       <c r="A186">
         <v>6325414</v>
       </c>
@@ -8464,14 +8465,14 @@
       <c r="F186" s="1">
         <v>38498</v>
       </c>
-      <c r="G186" s="3">
+      <c r="G186" s="5">
         <v>38611</v>
       </c>
-      <c r="H186" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="54">
       <c r="A187">
         <v>4022773</v>
       </c>
@@ -8490,14 +8491,14 @@
       <c r="F187" s="1">
         <v>38633</v>
       </c>
-      <c r="G187" s="3">
+      <c r="G187" s="5">
         <v>38686</v>
       </c>
-      <c r="H187" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="36">
       <c r="A188">
         <v>17738476</v>
       </c>
@@ -8516,14 +8517,14 @@
       <c r="F188" s="1">
         <v>38733</v>
       </c>
-      <c r="G188" s="3">
+      <c r="G188" s="5">
         <v>38761</v>
       </c>
-      <c r="H188" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="36">
       <c r="A189">
         <v>17407884</v>
       </c>
@@ -8542,14 +8543,14 @@
       <c r="F189" s="1">
         <v>38749</v>
       </c>
-      <c r="G189" s="3">
+      <c r="G189" s="5">
         <v>38785</v>
       </c>
-      <c r="H189" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>17791471</v>
       </c>
@@ -8568,14 +8569,14 @@
       <c r="F190" s="1">
         <v>38747</v>
       </c>
-      <c r="G190" s="3">
+      <c r="G190" s="5">
         <v>38780</v>
       </c>
-      <c r="H190" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>17701845</v>
       </c>
@@ -8594,14 +8595,14 @@
       <c r="F191" s="1">
         <v>38729</v>
       </c>
-      <c r="G191" s="3">
+      <c r="G191" s="5">
         <v>38835</v>
       </c>
-      <c r="H191" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="36">
       <c r="A192">
         <v>18160038</v>
       </c>
@@ -8620,14 +8621,14 @@
       <c r="F192" s="1">
         <v>38857</v>
       </c>
-      <c r="G192" s="3">
+      <c r="G192" s="5">
         <v>38877</v>
       </c>
-      <c r="H192" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="36">
       <c r="A193">
         <v>1056562</v>
       </c>
@@ -8646,14 +8647,14 @@
       <c r="F193" s="1">
         <v>38870</v>
       </c>
-      <c r="G193" s="3">
+      <c r="G193" s="5">
         <v>38920</v>
       </c>
-      <c r="H193" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="36">
       <c r="A194">
         <v>17567256</v>
       </c>
@@ -8672,14 +8673,14 @@
       <c r="F194" s="1">
         <v>38841</v>
       </c>
-      <c r="G194" s="3">
+      <c r="G194" s="5">
         <v>38922</v>
       </c>
-      <c r="H194" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>5155511</v>
       </c>
@@ -8698,14 +8699,14 @@
       <c r="F195" s="1">
         <v>38908</v>
       </c>
-      <c r="G195" s="3">
+      <c r="G195" s="5">
         <v>38927</v>
       </c>
-      <c r="H195" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>18379894</v>
       </c>
@@ -8724,14 +8725,14 @@
       <c r="F196" s="1">
         <v>38933</v>
       </c>
-      <c r="G196" s="3">
+      <c r="G196" s="5">
         <v>38950</v>
       </c>
-      <c r="H196" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="90">
       <c r="A197">
         <v>17668359</v>
       </c>
@@ -8750,14 +8751,14 @@
       <c r="F197" s="1">
         <v>38955</v>
       </c>
-      <c r="G197" s="3">
+      <c r="G197" s="5">
         <v>38980</v>
       </c>
-      <c r="H197" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="54">
       <c r="A198">
         <v>5843229</v>
       </c>
@@ -8776,14 +8777,14 @@
       <c r="F198" s="1">
         <v>39122.676388888889</v>
       </c>
-      <c r="G198" s="3">
+      <c r="G198" s="5">
         <v>39186</v>
       </c>
-      <c r="H198" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>19574977</v>
       </c>
@@ -8802,14 +8803,14 @@
       <c r="F199" s="1">
         <v>39152.808333333334</v>
       </c>
-      <c r="G199" s="3">
+      <c r="G199" s="5">
         <v>39183</v>
       </c>
-      <c r="H199" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="36">
       <c r="A200">
         <v>20173518</v>
       </c>
@@ -8828,14 +8829,14 @@
       <c r="F200" s="1">
         <v>39286</v>
       </c>
-      <c r="G200" s="3">
+      <c r="G200" s="5">
         <v>39296</v>
       </c>
-      <c r="H200" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="54">
       <c r="A201">
         <v>20239021</v>
       </c>
@@ -8854,14 +8855,14 @@
       <c r="F201" s="1">
         <v>39321.59097222222</v>
       </c>
-      <c r="G201" s="3">
+      <c r="G201" s="5">
         <v>39352</v>
       </c>
-      <c r="H201" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>20801334</v>
       </c>
@@ -8880,14 +8881,14 @@
       <c r="F202" s="1">
         <v>39440</v>
       </c>
-      <c r="G202" s="3">
+      <c r="G202" s="5">
         <v>39462</v>
       </c>
-      <c r="H202" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="36">
       <c r="A203">
         <v>20901962</v>
       </c>
@@ -8906,14 +8907,14 @@
       <c r="F203" s="1">
         <v>39462</v>
       </c>
-      <c r="G203" s="3">
+      <c r="G203" s="5">
         <v>39508</v>
       </c>
-      <c r="H203" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>616530</v>
       </c>
@@ -8932,14 +8933,14 @@
       <c r="F204" s="1">
         <v>39497</v>
       </c>
-      <c r="G204" s="3">
+      <c r="G204" s="5">
         <v>39534</v>
       </c>
-      <c r="H204" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="36">
       <c r="A205">
         <v>21151728</v>
       </c>
@@ -8958,14 +8959,14 @@
       <c r="F205" s="1">
         <v>39518</v>
       </c>
-      <c r="G205" s="3">
+      <c r="G205" s="5">
         <v>39605</v>
       </c>
-      <c r="H205" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="36">
       <c r="A206">
         <v>21958280</v>
       </c>
@@ -8984,14 +8985,14 @@
       <c r="F206" s="1">
         <v>39686</v>
       </c>
-      <c r="G206" s="3">
+      <c r="G206" s="5">
         <v>39781</v>
       </c>
-      <c r="H206" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="54">
       <c r="A207">
         <v>11593879</v>
       </c>
@@ -9010,14 +9011,14 @@
       <c r="F207" s="1">
         <v>39777</v>
       </c>
-      <c r="G207" s="3">
+      <c r="G207" s="5">
         <v>39797</v>
       </c>
-      <c r="H207" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="36">
       <c r="A208">
         <v>1056562</v>
       </c>
@@ -9036,14 +9037,14 @@
       <c r="F208" s="1">
         <v>39793</v>
       </c>
-      <c r="G208" s="3">
+      <c r="G208" s="5">
         <v>39819</v>
       </c>
-      <c r="H208" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="36">
       <c r="A209">
         <v>11647183</v>
       </c>
@@ -9062,14 +9063,14 @@
       <c r="F209" s="1">
         <v>39805</v>
       </c>
-      <c r="G209" s="3">
+      <c r="G209" s="5">
         <v>39848</v>
       </c>
-      <c r="H209" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="54">
       <c r="A210">
         <v>21936466</v>
       </c>
@@ -9088,14 +9089,14 @@
       <c r="F210" s="1">
         <v>39909</v>
       </c>
-      <c r="G210" s="3">
+      <c r="G210" s="5">
         <v>39978</v>
       </c>
-      <c r="H210" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="36">
       <c r="A211">
         <v>23504243</v>
       </c>
@@ -9114,14 +9115,14 @@
       <c r="F211" s="1">
         <v>40011.784722222219</v>
       </c>
-      <c r="G211" s="3">
+      <c r="G211" s="5">
         <v>40059</v>
       </c>
-      <c r="H211" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="36">
       <c r="A212">
         <v>22578890</v>
       </c>
@@ -9140,14 +9141,14 @@
       <c r="F212" s="1">
         <v>40076.827777777777</v>
       </c>
-      <c r="G212" s="3">
+      <c r="G212" s="5">
         <v>40100</v>
       </c>
-      <c r="H212" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>24157589</v>
       </c>
@@ -9166,14 +9167,14 @@
       <c r="F213" s="1">
         <v>40134.65347222222</v>
       </c>
-      <c r="G213" s="3">
+      <c r="G213" s="5">
         <v>40181</v>
       </c>
-      <c r="H213" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="36">
       <c r="A214">
         <v>9468134</v>
       </c>
@@ -9192,14 +9193,14 @@
       <c r="F214" s="1">
         <v>40163.675000000003</v>
       </c>
-      <c r="G214" s="3">
+      <c r="G214" s="5">
         <v>40193</v>
       </c>
-      <c r="H214" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>1056562</v>
       </c>
@@ -9218,14 +9219,14 @@
       <c r="F215" s="1">
         <v>40195.692361111112</v>
       </c>
-      <c r="G215" s="3">
+      <c r="G215" s="5">
         <v>40252</v>
       </c>
-      <c r="H215" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H215" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>24749201</v>
       </c>
@@ -9244,14 +9245,14 @@
       <c r="F216" s="1">
         <v>40247.813888888886</v>
       </c>
-      <c r="G216" s="3">
+      <c r="G216" s="5">
         <v>40264</v>
       </c>
-      <c r="H216" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>14376167</v>
       </c>
@@ -9270,14 +9271,14 @@
       <c r="F217" s="1">
         <v>40243.774305555555</v>
       </c>
-      <c r="G217" s="3">
+      <c r="G217" s="5">
         <v>40267</v>
       </c>
-      <c r="H217" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="36">
       <c r="A218">
         <v>24796399</v>
       </c>
@@ -9296,14 +9297,14 @@
       <c r="F218" s="1">
         <v>40255.795138888891</v>
       </c>
-      <c r="G218" s="3">
+      <c r="G218" s="5">
         <v>40305</v>
       </c>
-      <c r="H218" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="36">
       <c r="A219">
         <v>25215440</v>
       </c>
@@ -9322,14 +9323,14 @@
       <c r="F219" s="1">
         <v>40340.669444444444</v>
       </c>
-      <c r="G219" s="3">
+      <c r="G219" s="5">
         <v>40366</v>
       </c>
-      <c r="H219" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="54">
       <c r="A220">
         <v>25588180</v>
       </c>
@@ -9348,14 +9349,14 @@
       <c r="F220" s="1">
         <v>40435.736111111109</v>
       </c>
-      <c r="G220" s="3">
+      <c r="G220" s="5">
         <v>40473</v>
       </c>
-      <c r="H220" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="72">
       <c r="A221">
         <v>25842257</v>
       </c>
@@ -9374,14 +9375,14 @@
       <c r="F221" s="1">
         <v>40485.775000000001</v>
       </c>
-      <c r="G221" s="3">
+      <c r="G221" s="5">
         <v>40554</v>
       </c>
-      <c r="H221" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="36">
       <c r="A222">
         <v>26054534</v>
       </c>
@@ -9400,14 +9401,14 @@
       <c r="F222" s="1">
         <v>40506.62222222222</v>
       </c>
-      <c r="G222" s="3">
+      <c r="G222" s="5">
         <v>40542</v>
       </c>
-      <c r="H222" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>19006188</v>
       </c>
@@ -9426,14 +9427,14 @@
       <c r="F223" s="1">
         <v>40488.679166666669</v>
       </c>
-      <c r="G223" s="3">
+      <c r="G223" s="5">
         <v>40522</v>
       </c>
-      <c r="H223" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="36">
       <c r="A224">
         <v>4894149</v>
       </c>
@@ -9452,14 +9453,14 @@
       <c r="F224" s="1">
         <v>40511</v>
       </c>
-      <c r="G224" s="3">
+      <c r="G224" s="5">
         <v>40575</v>
       </c>
-      <c r="H224" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="72">
       <c r="A225">
         <v>25997148</v>
       </c>
@@ -9478,14 +9479,14 @@
       <c r="F225" s="1">
         <v>40494</v>
       </c>
-      <c r="G225" s="3">
+      <c r="G225" s="5">
         <v>40562</v>
       </c>
-      <c r="H225" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="36">
       <c r="A226">
         <v>22578890</v>
       </c>
@@ -9504,14 +9505,14 @@
       <c r="F226" s="1">
         <v>40522</v>
       </c>
-      <c r="G226" s="3">
+      <c r="G226" s="5">
         <v>40593</v>
       </c>
-      <c r="H226" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>26390791</v>
       </c>
@@ -9530,14 +9531,14 @@
       <c r="F227" s="1">
         <v>40569</v>
       </c>
-      <c r="G227" s="3">
+      <c r="G227" s="5">
         <v>40612</v>
       </c>
-      <c r="H227" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>26346257</v>
       </c>
@@ -9556,14 +9557,14 @@
       <c r="F228" s="1">
         <v>40562</v>
       </c>
-      <c r="G228" s="3">
+      <c r="G228" s="5">
         <v>40605</v>
       </c>
-      <c r="H228" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>26683989</v>
       </c>
@@ -9582,14 +9583,14 @@
       <c r="F229" s="1">
         <v>40644</v>
       </c>
-      <c r="G229" s="3">
+      <c r="G229" s="5">
         <v>40670</v>
       </c>
-      <c r="H229" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>2410938</v>
       </c>
@@ -9608,14 +9609,14 @@
       <c r="F230" s="1">
         <v>40687</v>
       </c>
-      <c r="G230" s="3">
+      <c r="G230" s="5">
         <v>40723</v>
       </c>
-      <c r="H230" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="36">
       <c r="A231">
         <v>11760541</v>
       </c>
@@ -9634,14 +9635,14 @@
       <c r="F231" s="1">
         <v>40721</v>
       </c>
-      <c r="G231" s="3">
+      <c r="G231" s="5">
         <v>40772</v>
       </c>
-      <c r="H231" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H231" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="90">
       <c r="A232">
         <v>7393661</v>
       </c>
@@ -9660,14 +9661,14 @@
       <c r="F232" s="1">
         <v>40737</v>
       </c>
-      <c r="G232" s="3">
+      <c r="G232" s="5">
         <v>40771</v>
       </c>
-      <c r="H232" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>19936285</v>
       </c>
@@ -9686,14 +9687,14 @@
       <c r="F233" s="1">
         <v>41002.661111111112</v>
       </c>
-      <c r="G233" s="3">
+      <c r="G233" s="5">
         <v>41029</v>
       </c>
-      <c r="H233" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H233" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="90">
       <c r="A234">
         <v>24796139</v>
       </c>
@@ -9712,14 +9713,14 @@
       <c r="F234" s="1">
         <v>41033.848611111112</v>
       </c>
-      <c r="G234" s="3">
+      <c r="G234" s="5">
         <v>41079</v>
       </c>
-      <c r="H234" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="90">
       <c r="A235">
         <v>29325598</v>
       </c>
@@ -9738,14 +9739,14 @@
       <c r="F235" s="1">
         <v>41123.914583333331</v>
       </c>
-      <c r="G235" s="3">
+      <c r="G235" s="5">
         <v>41131</v>
       </c>
-      <c r="H235" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="36">
       <c r="A236">
         <v>29630368</v>
       </c>
@@ -9764,14 +9765,14 @@
       <c r="F236" s="1">
         <v>41186.88958333333</v>
       </c>
-      <c r="G236" s="3">
+      <c r="G236" s="5">
         <v>41228</v>
       </c>
-      <c r="H236" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="72">
       <c r="A237">
         <v>29774619</v>
       </c>
@@ -9790,14 +9791,14 @@
       <c r="F237" s="1">
         <v>41214.956250000003</v>
       </c>
-      <c r="G237" s="3">
+      <c r="G237" s="5">
         <v>41232</v>
       </c>
-      <c r="H237" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H237" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>2975884</v>
       </c>
@@ -9816,14 +9817,14 @@
       <c r="F238" s="1">
         <v>41235.613888888889</v>
       </c>
-      <c r="G238" s="3">
+      <c r="G238" s="5">
         <v>41279</v>
       </c>
-      <c r="H238" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>29976990</v>
       </c>
@@ -9842,14 +9843,14 @@
       <c r="F239" s="1">
         <v>41299</v>
       </c>
-      <c r="G239" s="3">
+      <c r="G239" s="5">
         <v>41323</v>
       </c>
-      <c r="H239" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H239" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>17288887</v>
       </c>
@@ -9868,14 +9869,14 @@
       <c r="F240" s="1">
         <v>41306</v>
       </c>
-      <c r="G240" s="3">
+      <c r="G240" s="5">
         <v>41330</v>
       </c>
-      <c r="H240" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="36">
       <c r="A241">
         <v>30228024</v>
       </c>
@@ -9894,14 +9895,14 @@
       <c r="F241" s="1">
         <v>41309</v>
       </c>
-      <c r="G241" s="3">
+      <c r="G241" s="5">
         <v>41361</v>
       </c>
-      <c r="H241" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="36">
       <c r="A242">
         <v>10896359</v>
       </c>
@@ -9920,14 +9921,14 @@
       <c r="F242" s="1">
         <v>41332</v>
       </c>
-      <c r="G242" s="3">
+      <c r="G242" s="5">
         <v>41373</v>
       </c>
-      <c r="H242" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="36">
       <c r="A243">
         <v>30400044</v>
       </c>
@@ -9946,14 +9947,14 @@
       <c r="F243" s="1">
         <v>41341</v>
       </c>
-      <c r="G243" s="3">
+      <c r="G243" s="5">
         <v>41384</v>
       </c>
-      <c r="H243" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="36">
       <c r="A244">
         <v>30486169</v>
       </c>
@@ -9972,14 +9973,14 @@
       <c r="F244" s="1">
         <v>41358</v>
       </c>
-      <c r="G244" s="3">
+      <c r="G244" s="5">
         <v>41381</v>
       </c>
-      <c r="H244" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="54">
       <c r="A245">
         <v>228773</v>
       </c>
@@ -9998,14 +9999,14 @@
       <c r="F245" s="1">
         <v>41363</v>
       </c>
-      <c r="G245" s="3">
+      <c r="G245" s="5">
         <v>41423</v>
       </c>
-      <c r="H245" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H245" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>30798974</v>
       </c>
@@ -10024,14 +10025,14 @@
       <c r="F246" s="1">
         <v>41422</v>
       </c>
-      <c r="G246" s="3">
+      <c r="G246" s="5">
         <v>41450</v>
       </c>
-      <c r="H246" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="72">
       <c r="A247">
         <v>30956167</v>
       </c>
@@ -10050,14 +10051,14 @@
       <c r="F247" s="1">
         <v>41453</v>
       </c>
-      <c r="G247" s="3">
+      <c r="G247" s="5">
         <v>41486</v>
       </c>
-      <c r="H247" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H247" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="54">
       <c r="A248">
         <v>31363016</v>
       </c>
@@ -10076,14 +10077,14 @@
       <c r="F248" s="1">
         <v>41547</v>
       </c>
-      <c r="G248" s="3">
+      <c r="G248" s="5">
         <v>41559</v>
       </c>
-      <c r="H248" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="36">
       <c r="A249">
         <v>8312016</v>
       </c>
@@ -10102,14 +10103,14 @@
       <c r="F249" s="1">
         <v>41624</v>
       </c>
-      <c r="G249" s="3">
+      <c r="G249" s="5">
         <v>41665</v>
       </c>
-      <c r="H249" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="54">
       <c r="A250">
         <v>14938396</v>
       </c>
@@ -10128,14 +10129,14 @@
       <c r="F250" s="1">
         <v>41627</v>
       </c>
-      <c r="G250" s="3">
+      <c r="G250" s="5">
         <v>41672</v>
       </c>
-      <c r="H250" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="54">
       <c r="A251">
         <v>31836583</v>
       </c>
@@ -10154,14 +10155,14 @@
       <c r="F251" s="1">
         <v>41632</v>
       </c>
-      <c r="G251" s="3">
+      <c r="G251" s="5">
         <v>41698</v>
       </c>
-      <c r="H251" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="90">
       <c r="A252">
         <v>31993646</v>
       </c>
@@ -10180,14 +10181,14 @@
       <c r="F252" s="1">
         <v>41656</v>
       </c>
-      <c r="G252" s="3">
+      <c r="G252" s="5">
         <v>41688</v>
       </c>
-      <c r="H252" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="36">
       <c r="A253">
         <v>26618486</v>
       </c>
@@ -10206,14 +10207,14 @@
       <c r="F253" s="1">
         <v>41713</v>
       </c>
-      <c r="G253" s="3">
+      <c r="G253" s="5">
         <v>41755</v>
       </c>
-      <c r="H253" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="36">
       <c r="A254">
         <v>27149811</v>
       </c>
@@ -10232,14 +10233,14 @@
       <c r="F254" s="1">
         <v>41765</v>
       </c>
-      <c r="G254" s="3">
+      <c r="G254" s="5">
         <v>41792</v>
       </c>
-      <c r="H254" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H254" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="36">
       <c r="A255">
         <v>32560139</v>
       </c>
@@ -10258,14 +10259,14 @@
       <c r="F255" s="1">
         <v>41801</v>
       </c>
-      <c r="G255" s="3">
+      <c r="G255" s="5">
         <v>41846</v>
       </c>
-      <c r="H255" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H255" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="90">
       <c r="A256">
         <v>13814242</v>
       </c>
@@ -10284,14 +10285,14 @@
       <c r="F256" s="1">
         <v>41834</v>
       </c>
-      <c r="G256" s="3">
+      <c r="G256" s="5">
         <v>41961</v>
       </c>
-      <c r="H256" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="54">
       <c r="A257">
         <v>25159535</v>
       </c>
@@ -10310,14 +10311,14 @@
       <c r="F257" s="1">
         <v>41885</v>
       </c>
-      <c r="G257" s="3">
+      <c r="G257" s="5">
         <v>41897</v>
       </c>
-      <c r="H257" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="54">
       <c r="A258">
         <v>29578330</v>
       </c>
@@ -10336,14 +10337,14 @@
       <c r="F258" s="1">
         <v>41948</v>
       </c>
-      <c r="G258" s="3">
+      <c r="G258" s="5">
         <v>41971</v>
       </c>
-      <c r="H258" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>33596993</v>
       </c>
@@ -10362,14 +10363,14 @@
       <c r="F259" s="1">
         <v>41957</v>
       </c>
-      <c r="G259" s="3">
+      <c r="G259" s="5">
         <v>41971</v>
       </c>
-      <c r="H259" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="36">
       <c r="A260">
         <v>33241248</v>
       </c>
@@ -10388,14 +10389,14 @@
       <c r="F260" s="1">
         <v>41962</v>
       </c>
-      <c r="G260" s="3">
+      <c r="G260" s="5">
         <v>41975</v>
       </c>
-      <c r="H260" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H260" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>11005251</v>
       </c>
@@ -10414,14 +10415,14 @@
       <c r="F261" s="1">
         <v>41997</v>
       </c>
-      <c r="G261" s="3">
+      <c r="G261" s="5">
         <v>42017</v>
       </c>
-      <c r="H261" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H261" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="36">
       <c r="A262">
         <v>34000826</v>
       </c>
@@ -10440,14 +10441,14 @@
       <c r="F262" s="1">
         <v>42019</v>
       </c>
-      <c r="G262" s="3">
+      <c r="G262" s="5">
         <v>42033</v>
       </c>
-      <c r="H262" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="36">
       <c r="A263">
         <v>10593890</v>
       </c>
@@ -10466,14 +10467,14 @@
       <c r="F263" s="1">
         <v>42034</v>
       </c>
-      <c r="G263" s="3">
+      <c r="G263" s="5">
         <v>42080</v>
       </c>
-      <c r="H263" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H263" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="54">
       <c r="A264">
         <v>34218706</v>
       </c>
@@ -10492,14 +10493,14 @@
       <c r="F264" s="1">
         <v>42061</v>
       </c>
-      <c r="G264" s="3">
+      <c r="G264" s="5">
         <v>42075</v>
       </c>
-      <c r="H264" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="36">
       <c r="A265">
         <v>17701845</v>
       </c>
@@ -10518,14 +10519,14 @@
       <c r="F265" s="1">
         <v>42084</v>
       </c>
-      <c r="G265" s="3">
+      <c r="G265" s="5">
         <v>42118</v>
       </c>
-      <c r="H265" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H265" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="54">
       <c r="A266">
         <v>34553368</v>
       </c>
@@ -10544,14 +10545,14 @@
       <c r="F266" s="1">
         <v>42122</v>
       </c>
-      <c r="G266" s="3">
+      <c r="G266" s="5">
         <v>42179</v>
       </c>
-      <c r="H266" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="36">
       <c r="A267">
         <v>34725240</v>
       </c>
@@ -10570,14 +10571,14 @@
       <c r="F267" s="1">
         <v>42157</v>
       </c>
-      <c r="G267" s="3">
+      <c r="G267" s="5">
         <v>42185</v>
       </c>
-      <c r="H267" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="36">
       <c r="A268">
         <v>34731670</v>
       </c>
@@ -10596,14 +10597,14 @@
       <c r="F268" s="1">
         <v>42157</v>
       </c>
-      <c r="G268" s="3">
+      <c r="G268" s="5">
         <v>42185</v>
       </c>
-      <c r="H268" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="54">
       <c r="A269">
         <v>35163522</v>
       </c>
@@ -10622,14 +10623,14 @@
       <c r="F269" s="1">
         <v>42299</v>
       </c>
-      <c r="G269" s="3">
+      <c r="G269" s="5">
         <v>42324</v>
       </c>
-      <c r="H269" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="36">
       <c r="A270">
         <v>21203645</v>
       </c>
@@ -10648,14 +10649,14 @@
       <c r="F270" s="1">
         <v>42305</v>
       </c>
-      <c r="G270" s="3">
+      <c r="G270" s="5">
         <v>42333</v>
       </c>
-      <c r="H270" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H270" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="90">
       <c r="A271">
         <v>35240405</v>
       </c>
@@ -10674,14 +10675,14 @@
       <c r="F271" s="1">
         <v>42318</v>
       </c>
-      <c r="G271" s="3">
+      <c r="G271" s="5">
         <v>42371</v>
       </c>
-      <c r="H271" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>35385865</v>
       </c>
@@ -10700,14 +10701,14 @@
       <c r="F272" s="1">
         <v>42356</v>
       </c>
-      <c r="G272" s="3">
+      <c r="G272" s="5">
         <v>42377</v>
       </c>
-      <c r="H272" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H272" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="72">
       <c r="A273">
         <v>32693037</v>
       </c>
@@ -10726,14 +10727,14 @@
       <c r="F273" s="1">
         <v>42418</v>
       </c>
-      <c r="G273" s="3">
+      <c r="G273" s="5">
         <v>42469</v>
       </c>
-      <c r="H273" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H273" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>6388473</v>
       </c>
@@ -10752,14 +10753,14 @@
       <c r="F274" s="1">
         <v>42424</v>
       </c>
-      <c r="G274" s="3">
+      <c r="G274" s="5">
         <v>42440</v>
       </c>
-      <c r="H274" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>35725416</v>
       </c>
@@ -10778,14 +10779,14 @@
       <c r="F275" s="1">
         <v>42431</v>
       </c>
-      <c r="G275" s="3">
+      <c r="G275" s="5">
         <v>42454</v>
       </c>
-      <c r="H275" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>35789931</v>
       </c>
@@ -10804,14 +10805,14 @@
       <c r="F276" s="1">
         <v>42438</v>
       </c>
-      <c r="G276" s="3">
+      <c r="G276" s="5">
         <v>42468</v>
       </c>
-      <c r="H276" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>35810022</v>
       </c>
@@ -10830,14 +10831,14 @@
       <c r="F277" s="1">
         <v>42447</v>
       </c>
-      <c r="G277" s="3">
+      <c r="G277" s="5">
         <v>42460</v>
       </c>
-      <c r="H277" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>35808702</v>
       </c>
@@ -10856,14 +10857,14 @@
       <c r="F278" s="1">
         <v>42461</v>
       </c>
-      <c r="G278" s="3">
+      <c r="G278" s="5">
         <v>42481</v>
       </c>
-      <c r="H278" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H278" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>4794829</v>
       </c>
@@ -10882,14 +10883,14 @@
       <c r="F279" s="1">
         <v>42466</v>
       </c>
-      <c r="G279" s="3">
+      <c r="G279" s="5">
         <v>42479</v>
       </c>
-      <c r="H279" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="36">
       <c r="A280">
         <v>34755742</v>
       </c>
@@ -10908,14 +10909,14 @@
       <c r="F280" s="1">
         <v>42555</v>
       </c>
-      <c r="G280" s="3">
+      <c r="G280" s="5">
         <v>42607</v>
       </c>
-      <c r="H280" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>36403663</v>
       </c>
@@ -10934,14 +10935,14 @@
       <c r="F281" s="1">
         <v>42562</v>
       </c>
-      <c r="G281" s="3">
+      <c r="G281" s="5">
         <v>42607</v>
       </c>
-      <c r="H281" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="72">
       <c r="A282">
         <v>36227793</v>
       </c>
@@ -10960,14 +10961,14 @@
       <c r="F282" s="1">
         <v>42564</v>
       </c>
-      <c r="G282" s="3">
+      <c r="G282" s="5">
         <v>42579</v>
       </c>
-      <c r="H282" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H282" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="54">
       <c r="A283">
         <v>36525181</v>
       </c>
@@ -10986,14 +10987,14 @@
       <c r="F283" s="1">
         <v>42584</v>
       </c>
-      <c r="G283" s="3">
+      <c r="G283" s="5">
         <v>42600</v>
       </c>
-      <c r="H283" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H283" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="36">
       <c r="A284">
         <v>36560874</v>
       </c>
@@ -11012,14 +11013,14 @@
       <c r="F284" s="1">
         <v>42593</v>
       </c>
-      <c r="G284" s="3">
+      <c r="G284" s="5">
         <v>42614</v>
       </c>
-      <c r="H284" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>36489452</v>
       </c>
@@ -11038,14 +11039,14 @@
       <c r="F285" s="1">
         <v>42601</v>
       </c>
-      <c r="G285" s="3">
+      <c r="G285" s="5">
         <v>42635</v>
       </c>
-      <c r="H285" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H285" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="90">
       <c r="A286">
         <v>36654326</v>
       </c>
@@ -11064,14 +11065,14 @@
       <c r="F286" s="1">
         <v>42612</v>
       </c>
-      <c r="G286" s="3">
+      <c r="G286" s="5">
         <v>42640</v>
       </c>
-      <c r="H286" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H286" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="36">
       <c r="A287">
         <v>24772610</v>
       </c>
@@ -11090,14 +11091,14 @@
       <c r="F287" s="1">
         <v>42633</v>
       </c>
-      <c r="G287" s="3">
+      <c r="G287" s="5">
         <v>42664</v>
       </c>
-      <c r="H287" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>36701127</v>
       </c>
@@ -11116,14 +11117,14 @@
       <c r="F288" s="1">
         <v>42632</v>
       </c>
-      <c r="G288" s="3">
+      <c r="G288" s="5">
         <v>42664</v>
       </c>
-      <c r="H288" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="H288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="90">
       <c r="A289">
         <v>15629356</v>
       </c>
@@ -11142,14 +11143,14 @@
       <c r="F289" s="1">
         <v>42688</v>
       </c>
-      <c r="G289" s="3">
+      <c r="G289" s="5">
         <v>42728</v>
       </c>
-      <c r="H289" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H289" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="72">
       <c r="A290">
         <v>37156452</v>
       </c>
@@ -11168,14 +11169,14 @@
       <c r="F290" s="1">
         <v>42720</v>
       </c>
-      <c r="G290" s="3">
+      <c r="G290" s="5">
         <v>42735</v>
       </c>
-      <c r="H290" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="72">
       <c r="A291">
         <v>37184754</v>
       </c>
@@ -11194,14 +11195,14 @@
       <c r="F291" s="1">
         <v>42725</v>
       </c>
-      <c r="G291" s="3">
+      <c r="G291" s="5">
         <v>42746</v>
       </c>
-      <c r="H291" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H291" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="36">
       <c r="A292">
         <v>36573605</v>
       </c>
@@ -11220,14 +11221,14 @@
       <c r="F292" s="1">
         <v>42772</v>
       </c>
-      <c r="G292" s="3">
+      <c r="G292" s="5">
         <v>42787</v>
       </c>
-      <c r="H292" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="36">
       <c r="A293">
         <v>37277508</v>
       </c>
@@ -11246,14 +11247,14 @@
       <c r="F293" s="1">
         <v>42776</v>
       </c>
-      <c r="G293" s="3">
+      <c r="G293" s="5">
         <v>42814</v>
       </c>
-      <c r="H293" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H293" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="36">
       <c r="A294">
         <v>37499766</v>
       </c>
@@ -11272,14 +11273,14 @@
       <c r="F294" s="1">
         <v>42788</v>
       </c>
-      <c r="G294" s="3">
+      <c r="G294" s="5">
         <v>42803</v>
       </c>
-      <c r="H294" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>37639302</v>
       </c>
@@ -11298,14 +11299,14 @@
       <c r="F295" s="1">
         <v>42815</v>
       </c>
-      <c r="G295" s="3">
+      <c r="G295" s="5">
         <v>42845</v>
       </c>
-      <c r="H295" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="36">
       <c r="A296">
         <v>37050877</v>
       </c>
@@ -11324,14 +11325,14 @@
       <c r="F296" s="1">
         <v>42867</v>
       </c>
-      <c r="G296" s="3">
+      <c r="G296" s="5">
         <v>42952</v>
       </c>
-      <c r="H296" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="36">
       <c r="A297">
         <v>38167718</v>
       </c>
@@ -11350,14 +11351,14 @@
       <c r="F297" s="1">
         <v>42909</v>
       </c>
-      <c r="G297" s="3">
+      <c r="G297" s="5">
         <v>42928</v>
       </c>
-      <c r="H297" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H297" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="54">
       <c r="A298">
         <v>24796399</v>
       </c>
@@ -11376,14 +11377,14 @@
       <c r="F298" s="1">
         <v>42917</v>
       </c>
-      <c r="G298" s="3">
+      <c r="G298" s="5">
         <v>42944</v>
       </c>
-      <c r="H298" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>38314857</v>
       </c>
@@ -11402,14 +11403,14 @@
       <c r="F299" s="1">
         <v>42934</v>
       </c>
-      <c r="G299" s="3">
+      <c r="G299" s="5">
         <v>42947</v>
       </c>
-      <c r="H299" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H299" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>33161896</v>
       </c>
@@ -11428,14 +11429,14 @@
       <c r="F300" s="1">
         <v>42938</v>
       </c>
-      <c r="G300" s="3">
+      <c r="G300" s="5">
         <v>42993</v>
       </c>
-      <c r="H300" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>31748332</v>
       </c>
@@ -11454,14 +11455,14 @@
       <c r="F301" s="1">
         <v>42937</v>
       </c>
-      <c r="G301" s="3">
+      <c r="G301" s="5">
         <v>42970</v>
       </c>
-      <c r="H301" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H301" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="72">
       <c r="A302">
         <v>12329936</v>
       </c>
@@ -11480,14 +11481,14 @@
       <c r="F302" s="1">
         <v>42949</v>
       </c>
-      <c r="G302" s="3">
+      <c r="G302" s="5">
         <v>42965</v>
       </c>
-      <c r="H302" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H302" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>38531953</v>
       </c>
@@ -11506,14 +11507,14 @@
       <c r="F303" s="1">
         <v>42971</v>
       </c>
-      <c r="G303" s="3">
+      <c r="G303" s="5">
         <v>42989</v>
       </c>
-      <c r="H303" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H303" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="54">
       <c r="A304">
         <v>15902844</v>
       </c>
@@ -11532,14 +11533,14 @@
       <c r="F304" s="1">
         <v>42975</v>
       </c>
-      <c r="G304" s="3">
+      <c r="G304" s="5">
         <v>42991</v>
       </c>
-      <c r="H304" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H304" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>37333383</v>
       </c>
@@ -11558,14 +11559,14 @@
       <c r="F305" s="1">
         <v>42981</v>
       </c>
-      <c r="G305" s="3">
+      <c r="G305" s="5">
         <v>42998</v>
       </c>
-      <c r="H305" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>38845324</v>
       </c>
@@ -11584,14 +11585,14 @@
       <c r="F306" s="1">
         <v>43028</v>
       </c>
-      <c r="G306" s="3">
+      <c r="G306" s="5">
         <v>43052</v>
       </c>
-      <c r="H306" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H306" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="54">
       <c r="A307">
         <v>38909057</v>
       </c>
@@ -11610,14 +11611,14 @@
       <c r="F307" s="1">
         <v>43040</v>
       </c>
-      <c r="G307" s="3">
+      <c r="G307" s="5">
         <v>43083</v>
       </c>
-      <c r="H307" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H307" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="72">
       <c r="A308">
         <v>8611737</v>
       </c>
@@ -11636,14 +11637,14 @@
       <c r="F308" s="1">
         <v>43063</v>
       </c>
-      <c r="G308" s="3">
+      <c r="G308" s="5">
         <v>43084</v>
       </c>
-      <c r="H308" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H308" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="36">
       <c r="A309">
         <v>38816285</v>
       </c>
@@ -11662,14 +11663,14 @@
       <c r="F309" s="1">
         <v>43079</v>
       </c>
-      <c r="G309" s="3">
+      <c r="G309" s="5">
         <v>43124</v>
       </c>
-      <c r="H309" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H309" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>39168132</v>
       </c>
@@ -11688,14 +11689,14 @@
       <c r="F310" s="1">
         <v>43084</v>
       </c>
-      <c r="G310" s="3">
+      <c r="G310" s="5">
         <v>43122</v>
       </c>
-      <c r="H310" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H310" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>39350030</v>
       </c>
@@ -11714,14 +11715,14 @@
       <c r="F311" s="1">
         <v>43116</v>
       </c>
-      <c r="G311" s="3">
+      <c r="G311" s="5">
         <v>43134</v>
       </c>
-      <c r="H311" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H311" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>39411931</v>
       </c>
@@ -11740,14 +11741,14 @@
       <c r="F312" s="1">
         <v>43126</v>
       </c>
-      <c r="G312" s="3">
+      <c r="G312" s="5">
         <v>43144</v>
       </c>
-      <c r="H312" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H312" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="36">
       <c r="A313">
         <v>39470787</v>
       </c>
@@ -11766,14 +11767,14 @@
       <c r="F313" s="1">
         <v>43138</v>
       </c>
-      <c r="G313" s="3">
+      <c r="G313" s="5">
         <v>43174</v>
       </c>
-      <c r="H313" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H313" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>39547287</v>
       </c>
@@ -11792,14 +11793,14 @@
       <c r="F314" s="1">
         <v>43154</v>
       </c>
-      <c r="G314" s="3">
+      <c r="G314" s="5">
         <v>43172</v>
       </c>
-      <c r="H314" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H314" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="36">
       <c r="A315">
         <v>39816282</v>
       </c>
@@ -11818,14 +11819,14 @@
       <c r="F315" s="1">
         <v>43200</v>
       </c>
-      <c r="G315" s="3">
+      <c r="G315" s="5">
         <v>43218</v>
       </c>
-      <c r="H315" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="H315" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="108">
       <c r="A316">
         <v>39965733</v>
       </c>
@@ -11844,14 +11845,14 @@
       <c r="F316" s="1">
         <v>43227</v>
       </c>
-      <c r="G316" s="3">
+      <c r="G316" s="5">
         <v>43245</v>
       </c>
-      <c r="H316" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H316" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>39980558</v>
       </c>
@@ -11870,14 +11871,14 @@
       <c r="F317" s="1">
         <v>43229</v>
       </c>
-      <c r="G317" s="3">
+      <c r="G317" s="5">
         <v>43237</v>
       </c>
-      <c r="H317" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H317" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="72">
       <c r="A318">
         <v>24149333</v>
       </c>
@@ -11896,14 +11897,14 @@
       <c r="F318" s="1">
         <v>43238</v>
       </c>
-      <c r="G318" s="3">
+      <c r="G318" s="5">
         <v>43266</v>
       </c>
-      <c r="H318" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H318" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="36">
       <c r="A319">
         <v>18699846</v>
       </c>
@@ -11922,14 +11923,14 @@
       <c r="F319" s="1">
         <v>43250</v>
       </c>
-      <c r="G319" s="3">
+      <c r="G319" s="5">
         <v>43333</v>
       </c>
-      <c r="H319" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H319" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="54">
       <c r="A320">
         <v>8444953</v>
       </c>
@@ -11948,14 +11949,14 @@
       <c r="F320" s="1">
         <v>43261</v>
       </c>
-      <c r="G320" s="3">
+      <c r="G320" s="5">
         <v>43285</v>
       </c>
-      <c r="H320" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H320" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="36">
       <c r="A321">
         <v>37430714</v>
       </c>
@@ -11974,14 +11975,14 @@
       <c r="F321" s="1">
         <v>43284</v>
       </c>
-      <c r="G321" s="3">
+      <c r="G321" s="5">
         <v>43304</v>
       </c>
-      <c r="H321" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H321" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="36">
       <c r="A322">
         <v>40404229</v>
       </c>
@@ -12000,14 +12001,14 @@
       <c r="F322" s="1">
         <v>43301</v>
       </c>
-      <c r="G322" s="3">
+      <c r="G322" s="5">
         <v>43319</v>
       </c>
-      <c r="H322" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H322" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>37230781</v>
       </c>
@@ -12026,14 +12027,14 @@
       <c r="F323" s="1">
         <v>43349</v>
       </c>
-      <c r="G323" s="3">
+      <c r="G323" s="5">
         <v>43380</v>
       </c>
-      <c r="H323" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H323" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>40760505</v>
       </c>
@@ -12052,14 +12053,14 @@
       <c r="F324" s="1">
         <v>43362</v>
       </c>
-      <c r="G324" s="3">
+      <c r="G324" s="5">
         <v>43386</v>
       </c>
-      <c r="H324" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H324" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="36">
       <c r="A325">
         <v>40807549</v>
       </c>
@@ -12078,14 +12079,14 @@
       <c r="F325" s="1">
         <v>43372</v>
       </c>
-      <c r="G325" s="3">
+      <c r="G325" s="5">
         <v>43390</v>
       </c>
-      <c r="H325" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H325" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>40681495</v>
       </c>
@@ -12104,14 +12105,14 @@
       <c r="F326" s="1">
         <v>43383</v>
       </c>
-      <c r="G326" s="3">
+      <c r="G326" s="5">
         <v>43396</v>
       </c>
-      <c r="H326" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H326" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>2400836</v>
       </c>
@@ -12130,14 +12131,14 @@
       <c r="F327" s="1">
         <v>43396</v>
       </c>
-      <c r="G327" s="3">
+      <c r="G327" s="5">
         <v>43420</v>
       </c>
-      <c r="H327" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H327" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="54">
       <c r="A328">
         <v>9076548</v>
       </c>
@@ -12156,14 +12157,14 @@
       <c r="F328" s="1">
         <v>43402</v>
       </c>
-      <c r="G328" s="3">
+      <c r="G328" s="5">
         <v>43412</v>
       </c>
-      <c r="H328" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H328" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="36">
       <c r="A329">
         <v>41028181</v>
       </c>
@@ -12182,14 +12183,14 @@
       <c r="F329" s="1">
         <v>43410</v>
       </c>
-      <c r="G329" s="3">
+      <c r="G329" s="5">
         <v>43431</v>
       </c>
-      <c r="H329" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H329" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="54">
       <c r="A330">
         <v>12646923</v>
       </c>
@@ -12208,14 +12209,14 @@
       <c r="F330" s="1">
         <v>43421</v>
       </c>
-      <c r="G330" s="3">
+      <c r="G330" s="5">
         <v>43445</v>
       </c>
-      <c r="H330" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H330" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>41206158</v>
       </c>
@@ -12234,14 +12235,14 @@
       <c r="F331" s="1">
         <v>43440</v>
       </c>
-      <c r="G331" s="3">
+      <c r="G331" s="5">
         <v>43452</v>
       </c>
-      <c r="H331" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H331" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>19396946</v>
       </c>
@@ -12260,14 +12261,14 @@
       <c r="F332" s="1">
         <v>43444</v>
       </c>
-      <c r="G332" s="5">
+      <c r="G332" s="6">
         <v>43487</v>
       </c>
-      <c r="H332" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H332" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="36">
       <c r="A333">
         <v>27985064</v>
       </c>
@@ -12286,14 +12287,14 @@
       <c r="F333" s="1">
         <v>43525</v>
       </c>
-      <c r="G333" s="3">
+      <c r="G333" s="5">
         <v>43543</v>
       </c>
-      <c r="H333" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H333" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>41716947</v>
       </c>
@@ -12312,14 +12313,14 @@
       <c r="F334" s="1">
         <v>43532</v>
       </c>
-      <c r="G334" s="3">
+      <c r="G334" s="5">
         <v>43549</v>
       </c>
-      <c r="H334" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H334" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="54">
       <c r="A335">
         <v>40514146</v>
       </c>
@@ -12338,14 +12339,14 @@
       <c r="F335" s="1">
         <v>43542</v>
       </c>
-      <c r="G335" s="3">
+      <c r="G335" s="5">
         <v>43596</v>
       </c>
-      <c r="H335" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H335" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="36">
       <c r="A336">
         <v>41951092</v>
       </c>
@@ -12364,14 +12365,14 @@
       <c r="F336" s="1">
         <v>43549</v>
       </c>
-      <c r="G336" s="3">
+      <c r="G336" s="5">
         <v>43567</v>
       </c>
-      <c r="H336" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H336" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="36">
       <c r="A337">
         <v>42254624</v>
       </c>
@@ -12390,14 +12391,14 @@
       <c r="F337" s="1">
         <v>43595</v>
       </c>
-      <c r="G337" s="3">
+      <c r="G337" s="5">
         <v>43645</v>
       </c>
-      <c r="H337" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H337" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="54">
       <c r="A338">
         <v>37858484</v>
       </c>
@@ -12416,14 +12417,14 @@
       <c r="F338" s="1">
         <v>43609</v>
       </c>
-      <c r="G338" s="4">
+      <c r="G338" s="5">
         <v>43711</v>
       </c>
-      <c r="H338" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H338" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="72">
       <c r="A339">
         <v>24772610</v>
       </c>
@@ -12442,14 +12443,14 @@
       <c r="F339" s="1">
         <v>43642</v>
       </c>
-      <c r="G339" s="3">
+      <c r="G339" s="5">
         <v>43676</v>
       </c>
-      <c r="H339" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H339" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="54">
       <c r="A340">
         <v>5837899</v>
       </c>
@@ -12468,14 +12469,14 @@
       <c r="F340" s="1">
         <v>43652</v>
       </c>
-      <c r="G340" s="3">
+      <c r="G340" s="5">
         <v>43677</v>
       </c>
-      <c r="H340" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H340" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>42656974</v>
       </c>
@@ -12494,14 +12495,14 @@
       <c r="F341" s="1">
         <v>43657</v>
       </c>
-      <c r="G341" s="3">
+      <c r="G341" s="5">
         <v>43671</v>
       </c>
-      <c r="H341" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H341" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>42748972</v>
       </c>
@@ -12520,14 +12521,14 @@
       <c r="F342" s="1">
         <v>43670</v>
       </c>
-      <c r="G342" s="3">
+      <c r="G342" s="5">
         <v>43684</v>
       </c>
-      <c r="H342" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H342" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="54">
       <c r="A343">
         <v>42859869</v>
       </c>
@@ -12546,14 +12547,14 @@
       <c r="F343" s="1">
         <v>43684</v>
       </c>
-      <c r="G343" s="3">
+      <c r="G343" s="5">
         <v>43703</v>
       </c>
-      <c r="H343" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H343" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="54">
       <c r="A344">
         <v>42916294</v>
       </c>
@@ -12572,14 +12573,14 @@
       <c r="F344" s="1">
         <v>43713</v>
       </c>
-      <c r="G344" s="3">
+      <c r="G344" s="5">
         <v>43727</v>
       </c>
-      <c r="H344" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H344" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>42991675</v>
       </c>
@@ -12598,14 +12599,14 @@
       <c r="F345" s="1">
         <v>43732</v>
       </c>
-      <c r="G345" s="3">
+      <c r="G345" s="5">
         <v>43749</v>
       </c>
-      <c r="H345" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H345" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>26196564</v>
       </c>
@@ -12624,14 +12625,14 @@
       <c r="F346" s="1">
         <v>43756</v>
       </c>
-      <c r="G346" s="3">
+      <c r="G346" s="5">
         <v>43780</v>
       </c>
-      <c r="H346" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H346" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>9510480</v>
       </c>
@@ -12650,14 +12651,14 @@
       <c r="F347" s="1">
         <v>43780</v>
       </c>
-      <c r="G347" s="3">
+      <c r="G347" s="5">
         <v>43795</v>
       </c>
-      <c r="H347" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H347" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>43499066</v>
       </c>
@@ -12676,14 +12677,14 @@
       <c r="F348" s="1">
         <v>43781</v>
       </c>
-      <c r="G348" s="3">
+      <c r="G348" s="5">
         <v>43801</v>
       </c>
-      <c r="H348" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H348" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>6782099</v>
       </c>
@@ -12702,14 +12703,14 @@
       <c r="F349" s="1">
         <v>43779</v>
       </c>
-      <c r="G349" s="3">
+      <c r="G349" s="5">
         <v>43803</v>
       </c>
-      <c r="H349" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="H349" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="36">
       <c r="A350">
         <v>43831086</v>
       </c>
@@ -12728,14 +12729,14 @@
       <c r="F350" s="1">
         <v>43834</v>
       </c>
-      <c r="G350" s="3">
+      <c r="G350" s="5">
         <v>43858</v>
       </c>
-      <c r="H350" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H350" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>44253180</v>
       </c>
@@ -12754,14 +12755,14 @@
       <c r="F351" s="1">
         <v>43908</v>
       </c>
-      <c r="G351" s="3">
+      <c r="G351" s="5">
         <v>43934</v>
       </c>
-      <c r="H351" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H351" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>44335769</v>
       </c>
@@ -12780,14 +12781,14 @@
       <c r="F352" s="1">
         <v>43928</v>
       </c>
-      <c r="G352" s="3">
+      <c r="G352" s="5">
         <v>43948</v>
       </c>
-      <c r="H352" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="H352" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="72">
       <c r="A353">
         <v>18349123</v>
       </c>
@@ -12806,14 +12807,14 @@
       <c r="F353" s="1">
         <v>43969</v>
       </c>
-      <c r="G353" s="3">
+      <c r="G353" s="5">
         <v>43999</v>
       </c>
-      <c r="H353" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H353" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="54">
       <c r="A354">
         <v>9875844</v>
       </c>
@@ -12832,10 +12833,10 @@
       <c r="F354" s="1">
         <v>43972</v>
       </c>
-      <c r="G354" s="3">
+      <c r="G354" s="5">
         <v>43999</v>
       </c>
-      <c r="H354" s="6">
+      <c r="H354" s="4">
         <v>0</v>
       </c>
     </row>
